--- a/energy_throughput_compiled.xlsx
+++ b/energy_throughput_compiled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\School_Stuff\EEE_Microlab\Prelim\mac-accelerators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E90A03-7C14-40D3-BB85-B5BDF0BF4AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D5C412-D3DF-4D31-8912-186A603AB485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="353" windowWidth="19396" windowHeight="11745" xr2:uid="{7938340F-9BCA-49F2-98B0-BFFAC514C393}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="50">
   <si>
     <t>Frequency</t>
   </si>
@@ -184,11 +184,17 @@
   <si>
     <t>ST on ST</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -299,6 +305,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,24 +643,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BE34EF-B560-4A3D-A567-F438DB8C0D05}">
-  <dimension ref="A1:V120"/>
+  <dimension ref="A1:W120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G95" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.73046875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.06640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.06640625" style="2"/>
+    <col min="5" max="5" width="8.33203125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="9.06640625" style="2"/>
     <col min="9" max="9" width="9.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="9.06640625" style="2"/>
+    <col min="10" max="11" width="9.06640625" style="2"/>
+    <col min="12" max="12" width="12.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.06640625" style="2"/>
+    <col min="14" max="14" width="9" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.06640625" style="2"/>
     <col min="16" max="16" width="11.73046875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.06640625" style="2"/>
+    <col min="18" max="19" width="9.06640625" style="2"/>
+    <col min="20" max="20" width="9.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
@@ -1253,6 +1269,29 @@
         <v>657.06914675050598</v>
       </c>
     </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="J21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>11</v>
@@ -1754,7 +1793,7 @@
         <v>643.40768674036599</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>540000000</v>
       </c>
@@ -1810,7 +1849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>550000000</v>
       </c>
@@ -1870,7 +1909,7 @@
         <v>634.34865954783515</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>500000000</v>
       </c>
@@ -1914,7 +1953,7 @@
         <v>175.05544986407699</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>510000000</v>
       </c>
@@ -1958,7 +1997,7 @@
         <v>180.46953594234699</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>520000000</v>
       </c>
@@ -2002,7 +2041,7 @@
         <v>185.24386229002801</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>530000000</v>
       </c>
@@ -2046,7 +2085,7 @@
         <v>190.277662895736</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>540000000</v>
       </c>
@@ -2102,7 +2141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>550000000</v>
       </c>
@@ -2162,7 +2201,7 @@
         <v>187.60265627832482</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -2198,7 +2237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>500000000</v>
       </c>
@@ -2243,7 +2282,7 @@
         <v>700.98431263841996</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>510000000</v>
       </c>
@@ -2287,7 +2326,7 @@
         <v>722.77119556699404</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>520000000</v>
       </c>
@@ -2331,7 +2370,7 @@
         <v>741.80112071609994</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>530000000</v>
       </c>
@@ -2375,7 +2414,7 @@
         <v>761.99230933475906</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>540000000</v>
       </c>
@@ -2434,7 +2473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>550000000</v>
       </c>
@@ -2493,12 +2532,16 @@
         <f>AVERAGE(P43:P48)</f>
         <v>751.26363886186709</v>
       </c>
-      <c r="T48" s="3">
-        <f>AVERAGE(M43:M48)/100</f>
-        <v>5.862166666666667E-7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T48" s="17">
+        <f>AVERAGE(L43)*1000</f>
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="U48" s="2">
+        <f>((T48-$H$68)/$H$68)*100</f>
+        <v>-84.327272727272728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
         <v>500000000</v>
       </c>
@@ -2557,8 +2600,9 @@
         <f>((R48-R28)/R28)*100</f>
         <v>18.430712756194541</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T49" s="17"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>510000000</v>
       </c>
@@ -2612,8 +2656,9 @@
       <c r="S50" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T50" s="17"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>520000000</v>
       </c>
@@ -2656,8 +2701,9 @@
       <c r="P51" s="2">
         <v>741.80112071609994</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T51" s="17"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>530000000</v>
       </c>
@@ -2700,8 +2746,9 @@
       <c r="P52" s="2">
         <v>761.99230933475906</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T52" s="17"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>540000000</v>
       </c>
@@ -2756,11 +2803,18 @@
       <c r="R53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T53" s="2" t="s">
+      <c r="T53" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="V53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W53" s="2">
+        <f>AVERAGE(U48,U54,U60)</f>
+        <v>-71.352175766099819</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>550000000</v>
       </c>
@@ -2819,12 +2873,16 @@
         <f>AVERAGE(P49:P54)</f>
         <v>751.26363886186709</v>
       </c>
-      <c r="T54" s="3">
-        <f>AVERAGE(M49:M54)/100</f>
-        <v>5.862166666666667E-7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T54" s="17">
+        <f>AVERAGE(L49)*1000</f>
+        <v>0.23299999999999998</v>
+      </c>
+      <c r="U54" s="2">
+        <f>((T54-$H$74)/$H$74)*100</f>
+        <v>-67.229254571026715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
         <v>500000000</v>
       </c>
@@ -2883,8 +2941,9 @@
         <f>((R54-R34)/R34)*100</f>
         <v>18.430712756194541</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T55" s="17"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>510000000</v>
       </c>
@@ -2938,8 +2997,9 @@
       <c r="S56" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T56" s="17"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>520000000</v>
       </c>
@@ -2982,8 +3042,9 @@
       <c r="P57" s="2">
         <v>219.38562644718399</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T57" s="17"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>530000000</v>
       </c>
@@ -3026,8 +3087,9 @@
       <c r="P58" s="2">
         <v>225.34719238324899</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T58" s="17"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>540000000</v>
       </c>
@@ -3082,11 +3144,11 @@
       <c r="R59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T59" s="2" t="s">
+      <c r="T59" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>550000000</v>
       </c>
@@ -3145,12 +3207,16 @@
         <f>AVERAGE(P55:P60)</f>
         <v>222.17916297997363</v>
       </c>
-      <c r="T60" s="3">
-        <f>AVERAGE(M55:M60)/100</f>
-        <v>1.9822000000000003E-6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T60" s="17">
+        <f>AVERAGE(L55)*1000</f>
+        <v>0.24899999999999997</v>
+      </c>
+      <c r="U60" s="2">
+        <f>((T60-$H$80)/$H$80)*100</f>
+        <v>-62.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.45">
       <c r="H61" s="2">
         <f>((H60-H40)/H40)*100</f>
         <v>-17.799118890040617</v>
@@ -3174,7 +3240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>23</v>
       </c>
@@ -3232,7 +3298,7 @@
         <v>33.323415215294141</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>450000000</v>
       </c>
@@ -3261,7 +3327,7 @@
         <v>7</v>
       </c>
       <c r="L63">
-        <v>1.55E-2</v>
+        <v>2.14E-4</v>
       </c>
       <c r="M63" s="9">
         <v>2.6080000000000001E-5</v>
@@ -3270,7 +3336,7 @@
         <v>766871165.644171</v>
       </c>
       <c r="O63">
-        <v>20.212</v>
+        <v>0.27905599999999903</v>
       </c>
       <c r="P63">
         <v>1222.75706072554</v>
@@ -3279,7 +3345,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>460000000</v>
       </c>
@@ -3308,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="L64">
-        <v>1.5599999999999999E-2</v>
+        <v>2.1699999999999999E-4</v>
       </c>
       <c r="M64" s="9">
         <v>2.5579999999999999E-5</v>
@@ -3317,13 +3383,13 @@
         <v>781860828.77247798</v>
       </c>
       <c r="O64">
-        <v>19.952399999999901</v>
+        <v>0.27754299999999998</v>
       </c>
       <c r="P64">
         <v>1246.6577069477</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>470000000</v>
       </c>
@@ -3352,7 +3418,7 @@
         <v>7</v>
       </c>
       <c r="L65" s="10">
-        <v>1.5699999999999999E-2</v>
+        <v>2.22E-4</v>
       </c>
       <c r="M65" s="11">
         <v>2.508E-5</v>
@@ -3361,13 +3427,13 @@
         <v>797448165.86921799</v>
       </c>
       <c r="O65" s="10">
-        <v>19.687799999999999</v>
+        <v>0.27838799999999903</v>
       </c>
       <c r="P65" s="10">
         <v>1271.5113294944999</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>480000000</v>
       </c>
@@ -3396,7 +3462,7 @@
         <v>7</v>
       </c>
       <c r="L66">
-        <v>1.5699999999999999E-2</v>
+        <v>2.3000000000000001E-4</v>
       </c>
       <c r="M66" s="9">
         <v>2.457E-5</v>
@@ -3405,13 +3471,13 @@
         <v>814000814.00081396</v>
       </c>
       <c r="O66">
-        <v>19.28745</v>
+        <v>0.282555</v>
       </c>
       <c r="P66">
         <v>1297.9041165536</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>490000000</v>
       </c>
@@ -3440,7 +3506,7 @@
         <v>7</v>
       </c>
       <c r="L67">
-        <v>1.5699999999999999E-2</v>
+        <v>2.33E-4</v>
       </c>
       <c r="M67" s="9">
         <v>2.4070000000000002E-5</v>
@@ -3449,17 +3515,20 @@
         <v>830909846.28167796</v>
       </c>
       <c r="O67">
-        <v>18.894950000000001</v>
+        <v>0.28041549999999998</v>
       </c>
       <c r="P67">
         <v>1324.8651493029499</v>
       </c>
-      <c r="Q67" s="3">
-        <f>AVERAGE(M63:M67)/100</f>
-        <v>2.5076E-7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q67" s="17">
+        <v>0.222</v>
+      </c>
+      <c r="R67" s="2">
+        <f>((Q67-$H$68)/$H$68)*100</f>
+        <v>-59.63636363636364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68" s="10">
         <v>500000000</v>
       </c>
@@ -3481,9 +3550,9 @@
       <c r="G68" s="10">
         <v>529.85518822026302</v>
       </c>
-      <c r="H68" s="3">
-        <f>AVERAGE(D63:D68)/100</f>
-        <v>2.6414999999999999E-7</v>
+      <c r="H68" s="17">
+        <f>C68*1000</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J68">
         <v>480000000</v>
@@ -3492,7 +3561,7 @@
         <v>8</v>
       </c>
       <c r="L68">
-        <v>1.6199999999999999E-2</v>
+        <v>2.72E-4</v>
       </c>
       <c r="M68" s="9">
         <v>6.5199999999999999E-5</v>
@@ -3501,13 +3570,14 @@
         <v>306748466.25766802</v>
       </c>
       <c r="O68">
-        <v>52.811999999999998</v>
+        <v>0.88671999999999995</v>
       </c>
       <c r="P68">
         <v>489.10282429021697</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q68" s="17"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>450000000</v>
       </c>
@@ -3529,6 +3599,7 @@
       <c r="G69">
         <v>190.95801294099999</v>
       </c>
+      <c r="H69" s="17"/>
       <c r="J69">
         <v>490000000</v>
       </c>
@@ -3536,7 +3607,7 @@
         <v>8</v>
       </c>
       <c r="L69">
-        <v>1.5900000000000001E-2</v>
+        <v>2.7700000000000001E-4</v>
       </c>
       <c r="M69" s="9">
         <v>6.3949999999999996E-5</v>
@@ -3545,13 +3616,14 @@
         <v>312744331.508991</v>
       </c>
       <c r="O69">
-        <v>50.840249999999997</v>
+        <v>0.88570749999999998</v>
       </c>
       <c r="P69">
         <v>498.66308277908001</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q69" s="17"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>460000000</v>
       </c>
@@ -3573,6 +3645,7 @@
       <c r="G70">
         <v>195.36560012590701</v>
       </c>
+      <c r="H70" s="17"/>
       <c r="J70" s="10">
         <v>500000000</v>
       </c>
@@ -3580,7 +3653,7 @@
         <v>8</v>
       </c>
       <c r="L70" s="10">
-        <v>1.5900000000000001E-2</v>
+        <v>2.8299999999999999E-4</v>
       </c>
       <c r="M70" s="11">
         <v>6.2700000000000006E-5</v>
@@ -3589,13 +3662,14 @@
         <v>318979266.34768701</v>
       </c>
       <c r="O70" s="10">
-        <v>49.846499999999999</v>
+        <v>0.88720500000000002</v>
       </c>
       <c r="P70" s="10">
         <v>508.60453179780097</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q70" s="17"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>470000000</v>
       </c>
@@ -3617,6 +3691,7 @@
       <c r="G71">
         <v>199.02303610250399</v>
       </c>
+      <c r="H71" s="17"/>
       <c r="J71">
         <v>510000000</v>
       </c>
@@ -3624,7 +3699,7 @@
         <v>8</v>
       </c>
       <c r="L71">
-        <v>1.6199999999999999E-2</v>
+        <v>2.8899999999999998E-4</v>
       </c>
       <c r="M71" s="9">
         <v>6.1439999999999995E-5</v>
@@ -3633,13 +3708,14 @@
         <v>325520833.33333302</v>
       </c>
       <c r="O71">
-        <v>49.766399999999997</v>
+        <v>0.88780800000000004</v>
       </c>
       <c r="P71">
         <v>519.03489817256104</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q71" s="17"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>480000000</v>
       </c>
@@ -3661,6 +3737,7 @@
       <c r="G72">
         <v>203.81546197184301</v>
       </c>
+      <c r="H72" s="17"/>
       <c r="J72">
         <v>520000000</v>
       </c>
@@ -3668,7 +3745,7 @@
         <v>8</v>
       </c>
       <c r="L72">
-        <v>1.5900000000000001E-2</v>
+        <v>2.92E-4</v>
       </c>
       <c r="M72" s="9">
         <v>6.0189999999999998E-5</v>
@@ -3677,17 +3754,20 @@
         <v>332281109.81890601</v>
       </c>
       <c r="O72">
-        <v>47.851050000000001</v>
+        <v>0.87877399999999894</v>
       </c>
       <c r="P72">
         <v>529.81399142253099</v>
       </c>
-      <c r="Q72" s="3">
-        <f>AVERAGE(M68:M72)/100</f>
-        <v>6.2695999999999994E-7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q72" s="17">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="R72" s="2">
+        <f>((Q72-$H$74)/$H$74)*100</f>
+        <v>-60.196905766526022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>490000000</v>
       </c>
@@ -3709,6 +3789,7 @@
       <c r="G73">
         <v>207.79934512219199</v>
       </c>
+      <c r="H73" s="17"/>
       <c r="J73">
         <v>480000000</v>
       </c>
@@ -3716,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="L73">
-        <v>1.7299999999999999E-2</v>
+        <v>2.8899999999999998E-4</v>
       </c>
       <c r="M73">
         <v>2.2048E-4</v>
@@ -3725,13 +3806,14 @@
         <v>90711175.616835997</v>
       </c>
       <c r="O73">
-        <v>190.71519999999899</v>
+        <v>3.1859359999999999</v>
       </c>
       <c r="P73">
         <v>144.63672053574999</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q73" s="17"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A74" s="10">
         <v>500000000</v>
       </c>
@@ -3753,9 +3835,8 @@
       <c r="G74" s="10">
         <v>211.942075288105</v>
       </c>
-      <c r="H74" s="3">
-        <f>AVERAGE(D69:D74)/100</f>
-        <v>6.6038333333333336E-7</v>
+      <c r="H74" s="17">
+        <v>0.71099999999999997</v>
       </c>
       <c r="J74">
         <v>490000000</v>
@@ -3764,7 +3845,7 @@
         <v>9</v>
       </c>
       <c r="L74">
-        <v>1.72E-2</v>
+        <v>2.9399999999999999E-4</v>
       </c>
       <c r="M74">
         <v>2.1624E-4</v>
@@ -3773,13 +3854,14 @@
         <v>92489826.119126901</v>
       </c>
       <c r="O74">
-        <v>185.96639999999999</v>
+        <v>3.178728</v>
       </c>
       <c r="P74">
         <v>147.472734663902</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q74" s="17"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>450000000</v>
       </c>
@@ -3801,6 +3883,7 @@
       <c r="G75">
         <v>56.471052696601198</v>
       </c>
+      <c r="H75" s="17"/>
       <c r="J75" s="10">
         <v>500000000</v>
       </c>
@@ -3808,7 +3891,7 @@
         <v>9</v>
       </c>
       <c r="L75" s="10">
-        <v>1.72E-2</v>
+        <v>3.0200000000000002E-4</v>
       </c>
       <c r="M75" s="10">
         <v>2.12E-4</v>
@@ -3817,13 +3900,14 @@
         <v>94339622.641509399</v>
       </c>
       <c r="O75" s="10">
-        <v>182.32</v>
+        <v>3.2012</v>
       </c>
       <c r="P75" s="10">
         <v>150.42218935718</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q75" s="17"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>460000000</v>
       </c>
@@ -3845,6 +3929,7 @@
       <c r="G76">
         <v>57.772229026015999</v>
       </c>
+      <c r="H76" s="17"/>
       <c r="J76">
         <v>510000000</v>
       </c>
@@ -3852,7 +3937,7 @@
         <v>9</v>
       </c>
       <c r="L76">
-        <v>1.72E-2</v>
+        <v>3.0699999999999998E-4</v>
       </c>
       <c r="M76">
         <v>2.0776E-4</v>
@@ -3861,13 +3946,14 @@
         <v>96264921.062764704</v>
       </c>
       <c r="O76">
-        <v>178.67359999999999</v>
+        <v>3.1891159999999998</v>
       </c>
       <c r="P76">
         <v>153.492029956306</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q76" s="17"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>470000000</v>
       </c>
@@ -3889,6 +3975,7 @@
       <c r="G77">
         <v>58.857153514767496</v>
       </c>
+      <c r="H77" s="17"/>
       <c r="J77">
         <v>520000000</v>
       </c>
@@ -3896,7 +3983,7 @@
         <v>9</v>
       </c>
       <c r="L77">
-        <v>1.72E-2</v>
+        <v>3.1300000000000002E-4</v>
       </c>
       <c r="M77">
         <v>2.0352E-4</v>
@@ -3905,17 +3992,20 @@
         <v>98270440.251572296</v>
       </c>
       <c r="O77">
-        <v>175.02719999999999</v>
+        <v>3.1850879999999999</v>
       </c>
       <c r="P77">
         <v>156.689780580395</v>
       </c>
-      <c r="Q77" s="3">
-        <f>AVERAGE(M73:M77)/100</f>
-        <v>2.12E-6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q77" s="17">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="R77" s="2">
+        <f>((Q77-$H$80)/$H$80)*100</f>
+        <v>-54.518072289156628</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>480000000</v>
       </c>
@@ -3937,8 +4027,10 @@
       <c r="G78">
         <v>60.271988935795498</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="H78" s="17"/>
+      <c r="Q78" s="17"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>490000000</v>
       </c>
@@ -3960,6 +4052,7 @@
       <c r="G79">
         <v>61.453792640419003</v>
       </c>
+      <c r="H79" s="17"/>
       <c r="J79" s="1" t="s">
         <v>30</v>
       </c>
@@ -3979,8 +4072,9 @@
       <c r="P79" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q79" s="17"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A80" s="10">
         <v>500000000</v>
       </c>
@@ -4002,9 +4096,8 @@
       <c r="G80" s="10">
         <v>62.682868493227303</v>
       </c>
-      <c r="H80" s="3">
-        <f>AVERAGE(D75:D80)/100</f>
-        <v>2.2330666666666664E-6</v>
+      <c r="H80" s="17">
+        <v>0.66400000000000003</v>
       </c>
       <c r="J80" s="10">
         <v>500000000</v>
@@ -4013,7 +4106,7 @@
         <v>7</v>
       </c>
       <c r="L80" s="10">
-        <v>1.5699999999999999E-2</v>
+        <v>2.1599999999999999E-4</v>
       </c>
       <c r="M80" s="11">
         <v>2.508E-5</v>
@@ -4022,13 +4115,14 @@
         <v>797448165.86921799</v>
       </c>
       <c r="O80" s="10">
-        <v>19.687799999999999</v>
+        <v>0.27086399999999999</v>
       </c>
       <c r="P80" s="10">
         <v>1333.8287066443499</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q80" s="17"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
       <c r="J81">
         <v>510500000</v>
       </c>
@@ -4036,7 +4130,7 @@
         <v>7</v>
       </c>
       <c r="L81">
-        <v>1.5699999999999999E-2</v>
+        <v>2.22E-4</v>
       </c>
       <c r="M81" s="9">
         <v>2.457E-5</v>
@@ -4045,13 +4139,14 @@
         <v>814000814.00081396</v>
       </c>
       <c r="O81">
-        <v>19.28745</v>
+        <v>0.272727</v>
       </c>
       <c r="P81">
         <v>1361.5150167944701</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q81" s="17"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>33</v>
       </c>
@@ -4062,7 +4157,7 @@
         <v>7</v>
       </c>
       <c r="L82">
-        <v>1.5699999999999999E-2</v>
+        <v>2.2499999999999999E-4</v>
       </c>
       <c r="M82" s="9">
         <v>2.4070000000000002E-5</v>
@@ -4071,13 +4166,14 @@
         <v>830909846.28167796</v>
       </c>
       <c r="O82">
-        <v>18.894950000000001</v>
+        <v>0.27078750000000001</v>
       </c>
       <c r="P82">
         <v>1389.79742262735</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q82" s="17"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>24</v>
       </c>
@@ -4091,7 +4187,7 @@
         <v>7</v>
       </c>
       <c r="L83">
-        <v>1.5699999999999999E-2</v>
+        <v>2.2699999999999999E-4</v>
       </c>
       <c r="M83" s="9">
         <v>2.357E-5</v>
@@ -4100,13 +4196,14 @@
         <v>848536274.925753</v>
       </c>
       <c r="O83">
-        <v>18.50245</v>
+        <v>0.26751949999999902</v>
       </c>
       <c r="P83">
         <v>1419.2797608247899</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q83" s="17"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
@@ -4129,7 +4226,7 @@
         <v>7</v>
       </c>
       <c r="L84">
-        <v>1.5800000000000002E-2</v>
+        <v>2.3499999999999999E-4</v>
       </c>
       <c r="M84" s="9">
         <v>2.3070000000000001E-5</v>
@@ -4138,17 +4235,20 @@
         <v>866926744.69007301</v>
       </c>
       <c r="O84">
-        <v>18.225300000000001</v>
+        <v>0.27107249999999999</v>
       </c>
       <c r="P84">
         <v>1450.0400503961901</v>
       </c>
-      <c r="Q84" s="3">
-        <f>AVERAGE(M80:M84)/100</f>
-        <v>2.4072E-7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q84" s="17">
+        <v>0.216</v>
+      </c>
+      <c r="R84" s="2">
+        <f>((Q84-$H$68)/$H$68)*100</f>
+        <v>-60.727272727272741</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B85" s="3">
         <v>5.4700000000000001E-6</v>
       </c>
@@ -4168,7 +4268,7 @@
         <v>8</v>
       </c>
       <c r="L85" s="10">
-        <v>1.6199999999999999E-2</v>
+        <v>2.7E-4</v>
       </c>
       <c r="M85" s="11">
         <v>6.2700000000000006E-5</v>
@@ -4177,13 +4277,14 @@
         <v>318979266.34768701</v>
       </c>
       <c r="O85" s="10">
-        <v>50.786999999999999</v>
+        <v>0.84645000000000004</v>
       </c>
       <c r="P85" s="10">
         <v>533.53148265773996</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q85" s="17"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B86" s="3">
         <v>4.3100000000000002E-6</v>
       </c>
@@ -4203,7 +4304,7 @@
         <v>8</v>
       </c>
       <c r="L86">
-        <v>1.5900000000000001E-2</v>
+        <v>2.7700000000000001E-4</v>
       </c>
       <c r="M86" s="9">
         <v>6.1439999999999995E-5</v>
@@ -4212,13 +4313,14 @@
         <v>325520833.33333302</v>
       </c>
       <c r="O86">
-        <v>48.844799999999999</v>
+        <v>0.85094400000000003</v>
       </c>
       <c r="P86">
         <v>544.47304626693199</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q86" s="17"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B87" s="3">
         <v>4.3499999999999999E-6</v>
       </c>
@@ -4238,7 +4340,7 @@
         <v>8</v>
       </c>
       <c r="L87">
-        <v>1.61E-2</v>
+        <v>2.7799999999999998E-4</v>
       </c>
       <c r="M87" s="9">
         <v>6.0189999999999998E-5</v>
@@ -4247,13 +4349,14 @@
         <v>332281109.81890601</v>
       </c>
       <c r="O87">
-        <v>48.452949999999902</v>
+        <v>0.83664099999999897</v>
       </c>
       <c r="P87">
         <v>555.78042802193602</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q87" s="17"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A88" s="6" t="s">
         <v>34</v>
       </c>
@@ -4268,7 +4371,7 @@
         <v>8</v>
       </c>
       <c r="L88">
-        <v>1.5900000000000001E-2</v>
+        <v>2.8699999999999998E-4</v>
       </c>
       <c r="M88" s="9">
         <v>5.893E-5</v>
@@ -4277,13 +4380,14 @@
         <v>339385711.86153001</v>
       </c>
       <c r="O88">
-        <v>46.849350000000001</v>
+        <v>0.84564549999999905</v>
       </c>
       <c r="P88">
         <v>567.66373600272004</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q88" s="17"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
       <c r="J89">
         <v>542000000</v>
       </c>
@@ -4291,7 +4395,7 @@
         <v>8</v>
       </c>
       <c r="L89">
-        <v>1.6400000000000001E-2</v>
+        <v>2.9599999999999998E-4</v>
       </c>
       <c r="M89" s="9">
         <v>5.7679999999999997E-5</v>
@@ -4300,17 +4404,20 @@
         <v>346740638.00277299</v>
       </c>
       <c r="O89">
-        <v>47.297600000000003</v>
+        <v>0.85366399999999998</v>
       </c>
       <c r="P89">
         <v>579.96574137725895</v>
       </c>
-      <c r="Q89" s="3">
-        <f>AVERAGE(M85:M89)/100</f>
-        <v>6.0188000000000009E-7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q89" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="R89" s="2">
+        <f>((Q89-$H$74)/$H$74)*100</f>
+        <v>-62.025316455696199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>35</v>
       </c>
@@ -4321,7 +4428,7 @@
         <v>9</v>
       </c>
       <c r="L90" s="10">
-        <v>1.7100000000000001E-2</v>
+        <v>2.8499999999999999E-4</v>
       </c>
       <c r="M90" s="10">
         <v>2.12E-4</v>
@@ -4330,13 +4437,14 @@
         <v>94339622.641509399</v>
       </c>
       <c r="O90" s="10">
-        <v>181.26</v>
+        <v>3.0209999999999999</v>
       </c>
       <c r="P90" s="10">
         <v>157.79445265396299</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q90" s="17"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>24</v>
       </c>
@@ -4354,7 +4462,7 @@
         <v>9</v>
       </c>
       <c r="L91">
-        <v>1.7000000000000001E-2</v>
+        <v>2.8899999999999998E-4</v>
       </c>
       <c r="M91">
         <v>2.0776E-4</v>
@@ -4363,13 +4471,14 @@
         <v>96264921.062764704</v>
       </c>
       <c r="O91">
-        <v>176.596</v>
+        <v>3.0021319999999898</v>
       </c>
       <c r="P91">
         <v>161.014747606085</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q91" s="17"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
@@ -4398,7 +4507,7 @@
         <v>9</v>
       </c>
       <c r="L92">
-        <v>1.7100000000000001E-2</v>
+        <v>2.9599999999999998E-4</v>
       </c>
       <c r="M92">
         <v>2.0352E-4</v>
@@ -4407,13 +4516,14 @@
         <v>98270440.251572296</v>
       </c>
       <c r="O92">
-        <v>174.00960000000001</v>
+        <v>3.0120959999999899</v>
       </c>
       <c r="P92">
         <v>164.36922151454499</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q92" s="17"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B93" s="3">
         <v>4.0099999999999997E-6</v>
       </c>
@@ -4436,7 +4546,7 @@
         <v>9</v>
       </c>
       <c r="L93">
-        <v>1.7000000000000001E-2</v>
+        <v>3.0299999999999999E-4</v>
       </c>
       <c r="M93">
         <v>1.9928E-4</v>
@@ -4445,13 +4555,14 @@
         <v>100361300.682456</v>
       </c>
       <c r="O93">
-        <v>169.38800000000001</v>
+        <v>3.0190919999999899</v>
       </c>
       <c r="P93">
         <v>167.86643899357799</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q93" s="17"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B94" s="3">
         <v>4.5800000000000002E-6</v>
       </c>
@@ -4474,7 +4585,7 @@
         <v>9</v>
       </c>
       <c r="L94">
-        <v>1.6899999999999998E-2</v>
+        <v>3.0699999999999998E-4</v>
       </c>
       <c r="M94">
         <v>1.9504E-4</v>
@@ -4483,17 +4594,20 @@
         <v>102543068.088597</v>
       </c>
       <c r="O94">
-        <v>164.80879999999999</v>
+        <v>2.9938639999999999</v>
       </c>
       <c r="P94">
         <v>171.51570940648199</v>
       </c>
-      <c r="Q94" s="3">
-        <f>AVERAGE(M90:M94)/100</f>
-        <v>2.0352E-6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q94" s="17">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="R94" s="2">
+        <f>((Q94-$H$80)/$H$80)*100</f>
+        <v>-57.078313253012055</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B95" s="3">
         <v>4.0300000000000004E-6</v>
       </c>
@@ -4510,7 +4624,7 @@
         <v>3.9199999999999997E-6</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A96" s="6" t="s">
         <v>34</v>
       </c>
